--- a/data_files/container_upload_template_final.xlsx
+++ b/data_files/container_upload_template_final.xlsx
@@ -1,26 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python-yslee\workspace\Advanced-Conshare\data_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python-yslee\workspace\Advanced_Conshare\data_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15615" windowHeight="7080"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15615" windowHeight="7080" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Upload_Template" sheetId="1" r:id="rId1"/>
     <sheet name="Guide" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Upload_Template!$A$1:$J$1</definedName>
+  </definedNames>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
   <si>
     <t>Container Number (필수)</t>
   </si>
@@ -67,73 +70,73 @@
     <t>- Price는 '0' 입력 시 협의로 간주되며, 숫자만 입력해주세요.</t>
   </si>
   <si>
-    <t>📂 필드 설명</t>
-  </si>
-  <si>
-    <t>Container Number</t>
+    <t>📝 필드 설명</t>
+  </si>
+  <si>
+    <t>Container</t>
+  </si>
+  <si>
+    <t>필수</t>
+  </si>
+  <si>
+    <t>컨테이너 고유 번호 (예: HMMU1234567)</t>
   </si>
   <si>
     <t>Size</t>
   </si>
   <si>
+    <t>20FT 또는 40FT, 40HQ</t>
+  </si>
+  <si>
     <t>Terminal</t>
   </si>
   <si>
-    <t>Available From / To</t>
+    <t>Available From</t>
+  </si>
+  <si>
+    <t>사용 가능 시작일 (YYYY-MM-DD)</t>
+  </si>
+  <si>
+    <t>Available To</t>
+  </si>
+  <si>
+    <t>사용 가능 종료일 (YYYY-MM-DD)</t>
   </si>
   <si>
     <t>Price</t>
   </si>
   <si>
+    <t>0 = 협의, 또는 일 단위 대여 가격 (숫자만 입력)</t>
+  </si>
+  <si>
     <t>Tare</t>
   </si>
   <si>
+    <t>선택</t>
+  </si>
+  <si>
+    <t>컨테이너 자체 무게 (kg)</t>
+  </si>
+  <si>
     <t>Region</t>
   </si>
   <si>
+    <t>예: 부산, 광양, 인천 등</t>
+  </si>
+  <si>
     <t>Type</t>
   </si>
   <si>
+    <t>Dry, Reefer, Open Top 등</t>
+  </si>
+  <si>
     <t>Remarks</t>
   </si>
   <si>
-    <t>필수</t>
-  </si>
-  <si>
-    <t>선택</t>
-  </si>
-  <si>
-    <t>컨테이너 고유 번호 (예: HMMU1234567)</t>
-  </si>
-  <si>
-    <t>예: KIT, PNIT, BNCT 등</t>
-  </si>
-  <si>
-    <t>사용 가능 시작/종료일 (YYYY-MM-DD)</t>
-  </si>
-  <si>
-    <t>컨테이너 자체 무게 (kg)</t>
-  </si>
-  <si>
-    <t>예: 부산, 광양, 인천 등</t>
-  </si>
-  <si>
-    <t>Dry, Reefer, Open Top 등</t>
-  </si>
-  <si>
-    <t>20FT 또는 40FT, 40HQ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>기타 참고사항 (예: 즉시 예약가능, 연락요망, 데미지 여부 등)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0 = 협의, 또는 일 단위 대여 가격 (숫자만 입력)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Release Reference (필수)</t>
+  </si>
+  <si>
+    <t>예: PNIT,PNC,BNCT,BCT,DGT,HBCT,BPTG,BPTS,TOC,SNCT,HJIT,E1CT,ICT,IFT,KIT,GWCT,PCTC,PNCT,JUCT,UNCT,IGCT 등</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -152,10 +155,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="맑은 고딕"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
     <font>
       <sz val="8"/>
@@ -165,12 +167,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9E1F2"/>
+        <bgColor rgb="FFD9E1F2"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -200,10 +208,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -223,7 +235,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -265,7 +277,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -297,10 +309,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -332,7 +343,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -509,15 +519,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="21" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="6" max="6" width="21" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
+    <col min="9" max="9" width="11" customWidth="1"/>
+    <col min="10" max="10" width="14" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="33" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -548,159 +570,221 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>36</v>
-      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J1"/>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="46" customWidth="1"/>
+    <col min="2" max="2" width="5.5" customWidth="1"/>
+    <col min="3" max="3" width="38" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="5" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="66" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C8" t="s">
+    </row>
+    <row r="13" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B16" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="C16" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" t="s">
-        <v>34</v>
+      <c r="B17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>